--- a/data/example_1.xlsx
+++ b/data/example_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Sigla</t>
   </si>
@@ -105,7 +105,46 @@
     <t>ITI00001</t>
   </si>
   <si>
-    <t>Villa del Foro</t>
+    <t>VF E8/1000 VF M5</t>
+  </si>
+  <si>
+    <t>Scoria di fusione</t>
+  </si>
+  <si>
+    <t>villa del foro</t>
+  </si>
+  <si>
+    <t>ITI00002</t>
+  </si>
+  <si>
+    <t>CdA Viarengo Cum 56 CdA N2</t>
+  </si>
+  <si>
+    <t>Scoria</t>
+  </si>
+  <si>
+    <t>castello di annone</t>
+  </si>
+  <si>
+    <t>ITI00003</t>
+  </si>
+  <si>
+    <t>ITI00004</t>
+  </si>
+  <si>
+    <t>CdA Viarengo  CdA M1</t>
+  </si>
+  <si>
+    <t>Barretta</t>
+  </si>
+  <si>
+    <t>CdA Viarengo  CdA M3</t>
+  </si>
+  <si>
+    <t>Scorietta</t>
+  </si>
+  <si>
+    <t>ITI00005</t>
   </si>
 </sst>
 </file>
@@ -117,7 +156,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +170,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -147,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -155,22 +187,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF95B3D7"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF95B3D7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -191,11 +212,44 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
     <col min="5" max="13" width="6" style="1" customWidth="1"/>
@@ -515,8 +569,8 @@
     <col min="27" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="9" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:26" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -591,11 +645,11 @@
       <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -666,8 +720,308 @@
         <f>SUM(D2:X2)</f>
         <v>1000.1390214421519</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>29</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10">
+        <v>773</v>
+      </c>
+      <c r="E3" s="10">
+        <v>68.14341119519834</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4.5923438851774527</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.7844816899791232</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>2.4986113695198329</v>
+      </c>
+      <c r="J3" s="10">
+        <v>4.5918053841336111</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.97989848434237992</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2.5905369906054281</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.71132296972860143</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.19286374405010437</v>
+      </c>
+      <c r="O3" s="12">
+        <v>3.5206703027139876E-3</v>
+      </c>
+      <c r="P3" s="10">
+        <v>9.7487926513569925E-2</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.21356240250521918</v>
+      </c>
+      <c r="R3" s="13">
+        <v>4.5647369070981214E-2</v>
+      </c>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10">
+        <v>3.2086260835073072E-2</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10">
+        <v>0.29895813068893534</v>
+      </c>
+      <c r="X3" s="13">
+        <v>6.436956457813349E-2</v>
+      </c>
+      <c r="Y3" s="14">
+        <f t="shared" ref="Y3:Y6" si="0">SUM(D3:X3)</f>
+        <v>859.84190803722936</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="16">
+        <v>903.58872846153861</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3.5514173436538465</v>
+      </c>
+      <c r="F4" s="16">
+        <v>47.859824076923083</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.32193718519230763</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.26905653826923082</v>
+      </c>
+      <c r="J4" s="16">
+        <v>0.46794140000000012</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.91149499038461546</v>
+      </c>
+      <c r="L4" s="16">
+        <v>2.7347157888461537</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0.15657681569230769</v>
+      </c>
+      <c r="N4" s="18">
+        <v>5.2514503461538464E-2</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1.0844944503846154E-2</v>
+      </c>
+      <c r="P4" s="16">
+        <v>1.8064706965384616E-2</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1.9779333096153848E-2</v>
+      </c>
+      <c r="R4" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="S4" s="15"/>
+      <c r="T4" s="16">
+        <v>1.2081017534615386E-2</v>
+      </c>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="16">
+        <v>0.36098211419230769</v>
+      </c>
+      <c r="X4" s="19">
+        <v>1.752706678232863E-2</v>
+      </c>
+      <c r="Y4" s="20">
+        <f t="shared" si="0"/>
+        <v>960.35458628703634</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="16">
+        <v>881.38815625000007</v>
+      </c>
+      <c r="E5" s="16">
+        <v>100.84200076562499</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4.6348580625000002</v>
+      </c>
+      <c r="G5" s="16">
+        <v>10.3320198546875</v>
+      </c>
+      <c r="H5" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="I5" s="16">
+        <v>0.84759798046875001</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1.2268512959375</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1.3563466068750003</v>
+      </c>
+      <c r="L5" s="16">
+        <v>0.97169393671874993</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1.6685435609374999</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0.6001132992187499</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.32840710984374999</v>
+      </c>
+      <c r="P5" s="16">
+        <v>4.224692284375E-2</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>0.15504223682812499</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="S5" s="15"/>
+      <c r="T5" s="16">
+        <v>0.106761435125</v>
+      </c>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="16">
+        <v>0.37526038156250002</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0.20029182757243669</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="0"/>
+        <v>1005.0772915267444</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="16">
+        <v>832</v>
+      </c>
+      <c r="E6" s="16">
+        <v>106.9596961196319</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.953356907361963</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.24423315779141108</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1E-3</v>
+      </c>
+      <c r="I6" s="16">
+        <v>9.5079705276073623E-2</v>
+      </c>
+      <c r="J6" s="16">
+        <v>4.4031513374233125E-2</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.10148221401840492</v>
+      </c>
+      <c r="L6" s="16">
+        <v>0.16074507923312883</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0.11630961984662576</v>
+      </c>
+      <c r="N6" s="18">
+        <v>4.7910125245398776E-3</v>
+      </c>
+      <c r="O6" s="18">
+        <v>2.0948441791411046E-2</v>
+      </c>
+      <c r="P6" s="16">
+        <v>9.772763233128836E-3</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1E-4</v>
+      </c>
+      <c r="S6" s="15"/>
+      <c r="T6" s="16">
+        <v>1.7073374957055219E-2</v>
+      </c>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="16">
+        <v>0.31050411012269941</v>
+      </c>
+      <c r="X6" s="19">
+        <v>1.5990324755538162E-3</v>
+      </c>
+      <c r="Y6" s="20">
+        <f t="shared" si="0"/>
+        <v>942.04082305163809</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/example_1.xlsx
+++ b/data/example_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="435" windowWidth="24855" windowHeight="11520"/>
+    <workbookView xWindow="2460" yWindow="-120" windowWidth="24855" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
